--- a/Banking dataset Decision Tree/Performance_metrics/model_perf_metrics_merged_only_with_cfs_1356_2712_4069__1_2 .xlsx
+++ b/Banking dataset Decision Tree/Performance_metrics/model_perf_metrics_merged_only_with_cfs_1356_2712_4069__1_2 .xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,10 +502,10 @@
         <v>31647</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5077932731747333</v>
+        <v>0.5002020202020202</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6917697616163387</v>
+        <v>0.6902344919067953</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -536,10 +536,10 @@
         <v>31647</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4857324032974002</v>
+        <v>0.4899135446685879</v>
       </c>
       <c r="H3" t="n">
-        <v>0.7167066987508017</v>
+        <v>0.717621261038057</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -588,26 +588,26 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:1_iteration:1</t>
+          <t>DT_sample:1356_cf:1_iteration:1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1539136795903438</v>
+        <v>0.3011928429423459</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4747493655344037</v>
+        <v>0.5919747638910967</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -622,26 +622,26 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:1_iteration:2</t>
+          <t>DT_sample:1356_cf:1_iteration:2</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1539136795903438</v>
+        <v>0.2224554039874082</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4747493655344037</v>
+        <v>0.5625443303715804</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -656,26 +656,26 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:2_iteration:1</t>
+          <t>DT_sample:1356_cf:1_iteration:3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>10</v>
+        <v>1356</v>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>1356</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1373937677053825</v>
+        <v>0.2292657157950343</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5177616382641679</v>
+        <v>0.5649424732921501</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -690,31 +690,915 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>DT_sample:10_cf:2_iteration:2</t>
+          <t>DT_sample:1356_cf:1_iteration:4</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1356</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.2514285714285714</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.5738252657081623</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:1_iteration:5</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1356</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.254071661237785</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.5751377735875945</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E10" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.2547399124939232</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.5748660085399343</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E11" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.2605703048180924</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0.5769355996864671</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:3</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.2674591381872214</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0.579416730158904</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:4</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.2729007633587786</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0.5821696256790015</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>DT_sample:1356_cf:2_iteration:5</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1356</v>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.2692124105011933</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0.5807241403881888</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:1</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.2655601659751037</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0.5779882370352505</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:2</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.2725940400586224</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.5816006073329423</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:3</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>3</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.2790461694571283</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.5832671552371504</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:4</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>4</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.3173828125000001</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.5986593728245916</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:1_iteration:5</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2712</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3429394812680115</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.6091444169768194</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5424</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.249609984399376</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.5722477896479333</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5424</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3139534883720931</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.5976237276429671</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="G8" t="n">
-        <v>0.1373937677053825</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0.5177616382641679</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:3</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>3</v>
+      </c>
+      <c r="D22" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5424</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3069954705586311</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.5937555978228101</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:4</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5424</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.2770961145194274</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.5824025828094082</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>DT_sample:2712_cf:2_iteration:5</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>5</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2712</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5424</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3079980129160457</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5945354834819692</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:1</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.2825761357963055</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5849133125407675</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:2</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.2611336032388664</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.5767400253238105</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:3</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.261491317671093</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5767434237572422</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:4</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>4</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.2919563058589871</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.5885460734390502</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:1_iteration:5</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>5</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>4069</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.2733739837398373</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.5811611679648317</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:1</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1</v>
+      </c>
+      <c r="D30" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" t="n">
+        <v>8138</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.2794547224926971</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.5842841090348997</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:2</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E31" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" t="n">
+        <v>8138</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.2820643842616249</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.5842198128669075</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:3</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="n">
+        <v>8138</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.2949035131123207</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.5897425960742613</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:4</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E33" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8138</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.2901960784313725</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.5882107247981495</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>DT_sample:4069_cf:2_iteration:5</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>5</v>
+      </c>
+      <c r="D34" t="n">
+        <v>4069</v>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" t="n">
+        <v>8138</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.2493887530562347</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.5727617204843316</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
         <v>0</v>
       </c>
     </row>
